--- a/Result/check3/2025-04-15.xlsx
+++ b/Result/check3/2025-04-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV20"/>
+  <dimension ref="A1:AV19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,84 +733,84 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>-1.71</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-4.10</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-3.43</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-3.87</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2095</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-4.54</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>-3.43</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-3.87</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>117.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>2025-04-15</t>
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>67.53</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3491</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,84 +975,84 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-13.57</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-14.18</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>694</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.14</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-13.57</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-14.18</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>124.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>2025-04-15</t>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>42.82</t>
+          <t>46.28</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7012</t>
+          <t>7579</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,84 +1217,84 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>-1.09</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2237</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-2.44</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-55.92</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-81.47</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>268</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>3564</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-2.95</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-55.92</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-81.47</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>2025-04-11</t>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>15.18</t>
+          <t>15.01</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>345662</t>
+          <t>341946</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,84 +1459,84 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>3398</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-9.72</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-10.67</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-9.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>3225</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-2.16</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-9.72</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-10.67</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>2025-04-15</t>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>70.3</t>
+          <t>70.64</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>146.95</t>
+          <t>143.13</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>160978</t>
+          <t>161753</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1292.0</t>
+          <t>44302.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,142 +1671,142 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>36.53</t>
+          <t>53.56</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>59.4</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>34050</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1292</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>224031.0</t>
+          <t>4869439.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>全譜</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1816,57 +1816,57 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>-107.88%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>32.56</t>
+          <t>25.95</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>全譜-電腦及週邊設備業-上櫃</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>44302.0</t>
+          <t>8103.024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>53.56</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>46.65</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,84 +1943,84 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>11791</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>44302</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>11.03</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>61.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>2025-04-10</t>
@@ -2028,87 +2028,87 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>4869439.0</t>
+          <t>153928920.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>38.57</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>25.74</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>230683</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>4950</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8103.024</t>
+          <t>958.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-1.50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>27.77</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>46.65</t>
+          <t>16.6</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,172 +2185,172 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1793</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>8103</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-0.96</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>153928920.0</t>
+          <t>49949.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>金耘國際</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.52%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>69.56</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>226794</t>
+          <t>2649</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>金耘國際-其他-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2360,12 +2360,12 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>958.0</t>
+          <t>3278.255</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>27.77</t>
+          <t>39.98</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,84 +2427,84 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7606</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>958</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-1.50</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>266.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>2025-04-14</t>
@@ -2512,87 +2512,87 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>49949.0</t>
+          <t>295958937.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>金耘國際</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>15.52%</t>
+          <t>42.89%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>69.13</t>
+          <t>37.49</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>17770</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
+          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>金耘國際-其他-上櫃</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>其他平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>29.92</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3278.255</t>
+          <t>7612.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>39.98</t>
+          <t>26.04</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>62.4</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,172 +2669,172 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>-9.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>3278</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>61.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>295958937.0</t>
+          <t>1244483.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>永信</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>14.67</t>
+          <t>41.08</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>42.89%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>14.89%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>38.54</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>17158</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7612.0</t>
+          <t>1529.769</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>26.04</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>62.4</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,107 +2911,107 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>-0.59</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1416</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-3.92</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>7612</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>78.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1244483.0</t>
+          <t>205862235.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>奇偶</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -3021,62 +3021,62 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>37.37</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>47.63%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>15.71%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>73.07</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1749</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>數位監控系統及其相關產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>奇偶-光電業-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1529.769</t>
+          <t>2236.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,202 +3123,202 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>17.01</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-5.59</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1342</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-6.21</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>363253.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>1530</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>205862235.0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>奇偶</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>47.63%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>15.71%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>75.21</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>數位監控系統及其相關產品100.00% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>奇偶-光電業-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2236.0</t>
+          <t>85966.649</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,27 +3365,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>59.01</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>102.5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3395,172 +3395,172 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>-2.81</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1,205</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>48044</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>-3.98</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-4.27</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2236</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>234.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>363253.0</t>
+          <t>19521552625.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>102.71</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>8.09%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>288575</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>C電子產品96.14%、其他3.86% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>緯創-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>45.89</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2905</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>85966.649</t>
+          <t>1837.15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,17 +3607,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>59.01</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>102.5</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,84 +3637,84 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-2.50</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-0.73</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>-50.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>663</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>85967</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>-3.98</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-4.27</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
           <t>2025-04-15</t>
@@ -3722,27 +3722,27 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>19521552625.0</t>
+          <t>87573884.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>三商</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>貿易百貨</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3752,57 +3752,57 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>102.71</t>
+          <t>37.29</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>8.09%</t>
+          <t>-41.74%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>-51.81%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>28.38</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>296680</t>
+          <t>15659</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>C電子產品96.14%、其他3.86% (2024年)</t>
+          <t>個人健康險33.88%、個人壽險31.14%、民生用品及餐飲零售22.80%、個人傷害險3.29%、投資型保險2.82%、系統整合服務1.52%、維修及保養服務1.34%、金融自動化服務機器0.85%、團體險保費0.81%、原料藥(API)0.67%、中間體0.44%、萬能險0.41%、年金險0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>緯創-電腦及週邊設備業-上市</t>
+          <t>三商-貿易百貨-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>45.89</t>
+          <t>15.64</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
+          <t>** 貿易百貨 - 零售通路</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>931.0</t>
+          <t>78014.565</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,17 +3849,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>26.55</t>
+          <t>25.16</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,84 +3879,84 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>-3.24</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>28803</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-0.58</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>-0.97</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>-1.04</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>931</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>-0.81</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>-0.85</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
           <t>2025-04-15</t>
@@ -3964,87 +3964,87 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>33581.0</t>
+          <t>10162888144.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>港建*</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>24.48</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>37.34%</t>
+          <t>33.80%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>20.35%</t>
+          <t>31.43%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>16.42</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>3767</t>
+          <t>233752</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>商品銷售87.92%、勞務12.08% (2024年)</t>
+          <t>運費98.11%、其他勞務1.23%、專用碼頭0.64%、租金收入0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>港建*-其他電子業-上櫃</t>
+          <t>萬海-航運業-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>其他電子業右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
+          <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1837.15</t>
+          <t>8397.872</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,114 +4091,114 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2498</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-1.32</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>-1.46</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>1837</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>-0.73</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB16" t="inlineStr">
         <is>
           <t>2025-04-15</t>
@@ -4206,27 +4206,27 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>87573884.0</t>
+          <t>374962837.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>三商</t>
+          <t>中櫃</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4236,57 +4236,57 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>37.29</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>35.71</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>-41.74%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>-51.81%</t>
+          <t>11.12%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>28.78</t>
+          <t>16.42</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>15715</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>個人健康險33.88%、個人壽險31.14%、民生用品及餐飲零售22.80%、個人傷害險3.29%、投資型保險2.82%、系統整合服務1.52%、維修及保養服務1.34%、金融自動化服務機器0.85%、團體險保費0.81%、原料藥(API)0.67%、中間體0.44%、萬能險0.41%、年金險0.02%、其他0.01% (2023年)</t>
+          <t>碼頭87.83%、其他5.76%、貨櫃場5.63%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>三商-貿易百貨-上市</t>
+          <t>中櫃-航運業-上市</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 貿易百貨 - 零售通路</t>
+          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
         </is>
       </c>
     </row>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>78014.565</t>
+          <t>1281.206</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,17 +4333,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>25.16</t>
+          <t>26.53</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>62.7</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4363,112 +4363,112 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>417</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>78015</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>-0.97</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>-1.04</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>10162888144.0</t>
+          <t>254963941.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>櫻花建</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4478,57 +4478,57 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>33.80%</t>
+          <t>46.98%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>31.43%</t>
+          <t>42.67%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>44.28</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>241329</t>
+          <t>62638</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>運費98.11%、其他勞務1.23%、專用碼頭0.64%、租金收入0.02% (2024年)</t>
+          <t>房地銷售99.91%、其他0.09% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>萬海-航運業-上市</t>
+          <t>櫻花建-建材營造-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -4555,17 +4555,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8397.872</t>
+          <t>3440.116</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4575,27 +4575,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>58.16</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>95.3</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4605,82 +4605,82 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>572</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>8398</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>230.0</t>
+          <t>140.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -4690,27 +4690,27 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>374962837.0</t>
+          <t>608389716.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>中櫃</t>
+          <t>冠西電</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4720,57 +4720,57 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>37.14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>6.56%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>11.12%</t>
+          <t>-25.76%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>73.07</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>4631</t>
+          <t>17917</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>碼頭87.83%、其他5.76%、貨櫃場5.63%、其他租賃業務0.77% (2024年)</t>
+          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>中櫃-航運業-上市</t>
+          <t>冠西電-光電業-上市</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>23.76</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
+          <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
         </is>
       </c>
     </row>
@@ -4797,17 +4797,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1281.206</t>
+          <t>1082.442</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4817,142 +4817,142 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>87.5</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>-3.29</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>-3.99</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>62.7</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>1281</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>254963941.0</t>
+          <t>120186141.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>櫻花建</t>
+          <t>為升</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4962,57 +4962,57 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>26.26</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>31.32%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>45.18</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>62340</t>
+          <t>12471</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>為升-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -5026,248 +5026,6 @@
         </is>
       </c>
       <c r="AV19" t="inlineStr">
-        <is>
-          <t>** 建材營造 - 建設業</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2231</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1082.442</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>29.34</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>87.5</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>1082</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>-3.29</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>-3.99</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>136.0</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>120186141.0</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>為升</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>10.45</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>25.96</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>31.32%</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>8.59%</t>
-        </is>
-      </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>18.54</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>12330</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ20" t="inlineStr">
-        <is>
-          <t>為升-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AR20" t="inlineStr">
-        <is>
-          <t>汽車工業右下</t>
-        </is>
-      </c>
-      <c r="AS20" t="inlineStr">
-        <is>
-          <t>30.48</t>
-        </is>
-      </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU20" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV20" t="inlineStr">
         <is>
           <t>** 汽車 - 整車組裝、修理及技術服務</t>
         </is>

--- a/Result/check3/2025-04-15.xlsx
+++ b/Result/check3/2025-04-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV19"/>
+  <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-4.10</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>66.13</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3432</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>696</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>46.28</t>
+          <t>46.03</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>88.15</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7579</t>
+          <t>7537</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>6906</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3563.699</t>
+          <t>187.448</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>61.01</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1860.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2237</t>
+          <t>592</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.44</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-55.92</t>
+          <t>-7.49</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-81.47</t>
+          <t>-7.86</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,32 +1297,32 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>14386761667.0</t>
+          <t>120505946.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>緯穎</t>
+          <t>現觀科</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,57 +1332,57 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>622.11</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>15.01</t>
+          <t>39.3</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>91.84%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>46.28%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>88.15</t>
+          <t>34.67</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>341946</t>
+          <t>4678</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>資料中心產品100.00% (2024年)</t>
+          <t>軟體技術服務97.56%、定向廣告2.44% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>緯穎-電腦及週邊設備業-上市</t>
+          <t>現觀科-數位雲端-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>數位雲端右下</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>474.62</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、資料處理服務** 人工智慧 - 雲端平台、資料處理** 大數據 - 領域解決方案、資料庫、分析工具、應用軟體、雲端平台、儲存處理</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6415</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.46</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3224.878</t>
+          <t>3563.699</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>-2.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>28.45</t>
+          <t>61.01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>415.5</t>
+          <t>1860.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>81</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3398</t>
+          <t>2616</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-9.72</t>
+          <t>-55.92</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-10.67</t>
+          <t>-81.47</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,32 +1539,32 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2920278540.0</t>
+          <t>14386761667.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>矽力*-KY</t>
+          <t>緯穎</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1574,57 +1574,57 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>622.11</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>70.64</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>55.38%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>18.07%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>143.13</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>161753</t>
+          <t>349379</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
+          <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>矽力*-KY-半導體業-上市</t>
+          <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>91.01</t>
+          <t>474.62</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
+          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>-2.46</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44302.0</t>
+          <t>3224.878</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>53.56</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>415.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>104</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>34050</t>
+          <t>5568</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,52 +1721,52 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>-9.72</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>-10.67</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1781,92 +1781,92 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>4869439.0</t>
+          <t>2920278540.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>矽力*-KY</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>77.67</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>55.38%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>18.07%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>144.82</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>177831</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>矽力*-KY-半導體業-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>91.01</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8103.024</t>
+          <t>1292.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>30.19</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>46.65</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,72 +1943,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>11791</t>
+          <t>4279</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>-22.12</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2023,92 +2023,92 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>153928920.0</t>
+          <t>224031.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>全譜</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-107.88%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>31.94</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>230683</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>全譜-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>958.0</t>
+          <t>44302.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>27.77</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,77 +2185,77 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1793</t>
+          <t>101264</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>-13.54</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>266.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -2265,32 +2265,32 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>49949.0</t>
+          <t>4869439.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>金耘國際</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2300,57 +2300,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39.22</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>15.52%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>69.56</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>金耘國際-其他-上櫃</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3278.255</t>
+          <t>8103.024</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,202 +2397,202 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>39.98</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>46.65</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5941</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>153928920.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>上海商銀</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>7606</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>61.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2025-04-17</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>295958937.0</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>永信</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>15.19</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>42.89%</t>
-        </is>
-      </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>14.89%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>17770</t>
+          <t>228009</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>4950</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7612.0</t>
+          <t>958.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,202 +2639,202 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>-1.50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>26.04</t>
+          <t>27.77</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>16.6</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>62.4</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>49949.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>金耘國際</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>726</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>78.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>2025-04-17</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>1244483.0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>哲固</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>41.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>15.52%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>66.84</t>
+          <t>69.26</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>2678</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>金耘國際-其他-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1529.769</t>
+          <t>3278.255</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>39.98</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,72 +2911,72 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-3.92</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2991,32 +2991,32 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>205862235.0</t>
+          <t>295958937.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>奇偶</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>15.06</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>47.63%</t>
+          <t>42.89%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>15.71%</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>73.07</t>
+          <t>37.56</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>17610</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>數位監控系統及其相關產品100.00% (2024年)</t>
+          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>奇偶-光電業-上市</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>29.92</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2236.0</t>
+          <t>7612.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>26.04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>62.4</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,57 +3153,57 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-5.59</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>236</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>17248</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-6.21</t>
+          <t>-21.20</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>234.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3233,27 +3233,27 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>363253.0</t>
+          <t>1244483.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -3268,47 +3268,47 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37.01</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>66.84</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1732</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85966.649</t>
+          <t>1529.769</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,17 +3365,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>59.01</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>102.5</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3395,74 +3395,74 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1,205</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>48044</t>
+          <t>751</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-3.98</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-4.27</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
           <t>42.0</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
       <c r="Z13" t="inlineStr">
         <is>
           <t>False</t>
@@ -3475,32 +3475,32 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>19521552625.0</t>
+          <t>205862235.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>奇偶</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3510,57 +3510,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>102.71</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>16.53</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>8.09%</t>
+          <t>47.63%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>15.71%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>88.15</t>
+          <t>73.09</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>288575</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>C電子產品96.14%、其他3.86% (2024年)</t>
+          <t>數位監控系統及其相關產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>緯創-電腦及週邊設備業-上市</t>
+          <t>奇偶-光電業-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>45.89</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1837.15</t>
+          <t>2236.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,202 +3607,202 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>17.01</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-7.26</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-5.33</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>363253.0</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-0.36</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>1638</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>-2.50</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-0.73</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>2025-04-17</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>87573884.0</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>三商</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>貿易百貨</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>37.29</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>-41.74%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>-51.81%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>28.38</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>15659</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>個人健康險33.88%、個人壽險31.14%、民生用品及餐飲零售22.80%、個人傷害險3.29%、投資型保險2.82%、系統整合服務1.52%、維修及保養服務1.34%、金融自動化服務機器0.85%、團體險保費0.81%、原料藥(API)0.67%、中間體0.44%、萬能險0.41%、年金險0.02%、其他0.01% (2023年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>三商-貿易百貨-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 貿易百貨 - 零售通路</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>78014.565</t>
+          <t>85966.649</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,114 +3849,114 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>102.5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>-1.99</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1,015</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>48435</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>1.26</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>25.16</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>-3.98</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>-4.27</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>-3.24</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>28803</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>-0.58</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>-0.97</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>-1.04</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
           <t>2025-04-15</t>
@@ -3964,27 +3964,27 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>10162888144.0</t>
+          <t>19521552625.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3994,57 +3994,57 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>102.71</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>33.80%</t>
+          <t>8.09%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>31.43%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>233752</t>
+          <t>290891</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>運費98.11%、其他勞務1.23%、專用碼頭0.64%、租金收入0.02% (2024年)</t>
+          <t>C電子產品96.14%、其他3.86% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>萬海-航運業-上市</t>
+          <t>緯創-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>45.89</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8397.872</t>
+          <t>931.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,27 +4091,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>26.55</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>25.95</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4121,72 +4121,72 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>230.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4206,87 +4206,87 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>374962837.0</t>
+          <t>33581.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>中櫃</t>
+          <t>港建*</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>35.71</t>
+          <t>24.53</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>37.34%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>11.12%</t>
+          <t>20.35%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>28.32</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>4453</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>碼頭87.83%、其他5.76%、貨櫃場5.63%、其他租賃業務0.77% (2024年)</t>
+          <t>商品銷售87.92%、勞務12.08% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>中櫃-航運業-上市</t>
+          <t>港建*-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>其他電子業右下</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>23.76</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
+          <t>** 半導體 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2905</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1281.206</t>
+          <t>1837.15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,17 +4333,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4363,22 +4363,22 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>636</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -4388,47 +4388,47 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4443,32 +4443,32 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>254963941.0</t>
+          <t>87573884.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>櫻花建</t>
+          <t>三商</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>貿易百貨</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4478,57 +4478,57 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>37.29</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>-41.74%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>-51.81%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>44.28</t>
+          <t>28.26</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>62638</t>
+          <t>15603</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+          <t>個人健康險33.88%、個人壽險31.14%、民生用品及餐飲零售22.80%、個人傷害險3.29%、投資型保險2.82%、系統整合服務1.52%、維修及保養服務1.34%、金融自動化服務機器0.85%、團體險保費0.81%、原料藥(API)0.67%、中間體0.44%、萬能險0.41%、年金險0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>三商-貿易百貨-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>15.64</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 貿易百貨 - 零售通路</t>
         </is>
       </c>
     </row>
@@ -4555,17 +4555,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3440.116</t>
+          <t>78014.565</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4575,27 +4575,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>58.16</t>
+          <t>25.16</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>95.3</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4605,82 +4605,82 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>-8.45</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>205</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3427</t>
+          <t>23307</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>-3.91</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -4690,27 +4690,27 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>608389716.0</t>
+          <t>10162888144.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>冠西電</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4720,57 +4720,57 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>6.56%</t>
+          <t>33.80%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>-25.76%</t>
+          <t>31.43%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>73.07</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>17917</t>
+          <t>222527</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
+          <t>運費98.11%、其他勞務1.23%、專用碼頭0.64%、租金收入0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>冠西電-光電業-上市</t>
+          <t>萬海-航運業-上市</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
+          <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
       </c>
     </row>
@@ -4797,235 +4797,961 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8397.872</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>18.01</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>-8.52</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2299</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>-2.89</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>-1.46</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>374962837.0</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>中櫃</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>17.27%</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>11.12%</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>碼頭87.83%、其他5.76%、貨櫃場5.63%、其他租賃業務0.77% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>中櫃-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>航運業平</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2539</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1281.206</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>62.7</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>254963941.0</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>櫻花建</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>46.98%</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>42.67%</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>62538</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>櫻花建-建材營造-上市</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>建材營造右上</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建設業</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2466</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3440.116</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>95.3</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>14017</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>608389716.0</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>冠西電</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>6.56%</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>-25.76%</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>73.09</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>18603</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>冠西電-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>2231</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>5.88</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>1082.442</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>5.03</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>3.35</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>29.34</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>87.5</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>687</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>2.87</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>0.68</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>-0.04</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>0.18</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>-3.29</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>-3.99</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>-90.0</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>136.0</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>17.0</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>2025-04-14</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>2025-04-17</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>120186141.0</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>為升</t>
         </is>
       </c>
-      <c r="AG19" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>汽車工業</t>
         </is>
       </c>
-      <c r="AH19" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>10.45</t>
         </is>
       </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>26.26</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
         <is>
           <t>31.32%</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AM22" t="inlineStr">
         <is>
           <t>8.59%</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>18.52</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>12471</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>12823</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
         <is>
           <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>為升-汽車工業-上市</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AR22" t="inlineStr">
         <is>
           <t>汽車工業右下</t>
         </is>
       </c>
-      <c r="AS19" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>30.48</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU19" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV19" t="inlineStr">
+      <c r="AV22" t="inlineStr">
         <is>
           <t>** 汽車 - 整車組裝、修理及技術服務</t>
         </is>

--- a/Result/check3/2025-04-15.xlsx
+++ b/Result/check3/2025-04-15.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>1129</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>-7.45</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>66.13</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3637</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>-3.09</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>-3.40</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>46.03</t>
+          <t>41.54</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7537</t>
+          <t>6802</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>-10.47</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>39.01</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>34.67</t>
+          <t>34.74</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>4678</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>15.34</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>349379</t>
+          <t>350308</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>5568</t>
+          <t>4785</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>-4.28</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>77.67</t>
+          <t>72.42</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>144.82</t>
+          <t>144.02</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>177831</t>
+          <t>165821</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4279</t>
+          <t>729</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-22.12</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>31.94</t>
+          <t>32.28</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1299</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>101264</t>
+          <t>80371</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-13.54</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>39.22</t>
+          <t>43.12</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>26.22</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>5941</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2437</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>69.26</t>
+          <t>69.44</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2678</t>
+          <t>2774</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2911,17 +2911,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4266</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>15.06</t>
+          <t>15.24</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>37.56</t>
+          <t>37.92</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>17610</t>
+          <t>17824</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3153,17 +3153,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>32</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>17248</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-21.20</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>37.01</t>
+          <t>39.88</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3395,17 +3395,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>73.09</t>
+          <t>72.85</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>4021</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3637,17 +3637,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-7.26</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1,015</t>
+          <t>1,284</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>48435</t>
+          <t>73075</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>16.67</t>
+          <t>17.41</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>290891</t>
+          <t>303916</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>596</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>24.53</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>28.32</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>3774</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -4363,17 +4363,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>535</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>28.26</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>15603</t>
+          <t>15547</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -4605,17 +4605,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-8.45</t>
+          <t>-3.37</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>167</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>23307</t>
+          <t>49207</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-3.91</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -4745,12 +4745,12 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>16.41</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>222527</t>
+          <t>233471</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4847,17 +4847,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-8.52</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2299</t>
+          <t>3423</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4867,12 +4867,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>34.23</t>
+          <t>37.62</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4987,12 +4987,12 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>16.41</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>4267</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
@@ -5089,17 +5089,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>22.07</t>
+          <t>22.28</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>44.14</t>
+          <t>44.08</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>62538</t>
+          <t>63135</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -5331,17 +5331,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>61</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>14017</t>
+          <t>13179</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -5351,12 +5351,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -5471,12 +5471,12 @@
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>73.09</t>
+          <t>72.85</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>18603</t>
+          <t>17832</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -5573,17 +5573,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>758</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -5593,12 +5593,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>26.41</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>18.47</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>12823</t>
+          <t>12542</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">

--- a/Result/check3/2025-04-15.xlsx
+++ b/Result/check3/2025-04-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV22"/>
+  <dimension ref="A1:AV17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-14.42</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1129</t>
+          <t>626</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-7.45</t>
+          <t>-5.00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>66.84</t>
+          <t>63.79</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3467</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6933</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>694.426</t>
+          <t>3563.699</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>-2.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>27.50</t>
+          <t>61.01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>167.0</t>
+          <t>1860.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,72 +975,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-3.09</t>
+          <t>-5.08</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>89</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-3.40</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-13.57</t>
+          <t>-55.92</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-14.18</t>
+          <t>-81.47</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>124.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1055,27 +1055,27 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>169005824.0</t>
+          <t>14386761667.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>AMAX-KY</t>
+          <t>緯穎</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1090,57 +1090,57 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>39.39</t>
+          <t>622.11</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>41.54</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>13.42%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>4.38%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>88.11</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>6802</t>
+          <t>328937</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>商品銷售98.73%、服務收入1.27% (2024年)</t>
+          <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>AMAX-KY-電腦及週邊設備業-上市</t>
+          <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>52.07</t>
+          <t>474.62</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6906</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>-2.46</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>187.448</t>
+          <t>3224.878</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>415.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>3078</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-10.47</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-7.49</t>
+          <t>-9.72</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-7.86</t>
+          <t>-10.67</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1302,27 +1302,27 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>120505946.0</t>
+          <t>2920278540.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>現觀科</t>
+          <t>矽力*-KY</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>數位雲端</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,57 +1332,57 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>39.01</t>
+          <t>70.22</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>91.84%</t>
+          <t>55.38%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>46.28%</t>
+          <t>18.07%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>34.74</t>
+          <t>134.67</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>4645</t>
+          <t>160784</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>軟體技術服務97.56%、定向廣告2.44% (2024年)</t>
+          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>現觀科-數位雲端-上市</t>
+          <t>矽力*-KY-半導體業-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>數位雲端右下</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>28.45</t>
+          <t>91.01</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、資料處理服務** 人工智慧 - 雲端平台、資料處理** 大數據 - 領域解決方案、資料庫、分析工具、應用軟體、雲端平台、儲存處理</t>
+          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3563.699</t>
+          <t>44302.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,202 +1429,202 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>61.01</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>59.4</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>19287</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-9.81</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1860.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1314</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-55.92</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-81.47</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>14386761667.0</t>
+          <t>4869439.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>緯穎</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>622.11</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>15.38</t>
+          <t>38.38</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>88.11</t>
+          <t>25.36</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>350308</t>
+          <t>2754</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>資料中心產品100.00% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>緯穎-電腦及週邊設備業-上市</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>474.62</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6415</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-2.46</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3224.878</t>
+          <t>8103.024</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,202 +1671,202 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>28.45</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>46.65</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>6990</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>415.5</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>153928920.0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>上海商銀</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>4785</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-4.28</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-9.72</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-10.67</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>2920278540.0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>矽力*-KY</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>13.2</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>72.42</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>55.38%</t>
-        </is>
-      </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>18.07%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>144.02</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>165821</t>
+          <t>230683</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>矽力*-KY-半導體業-上市</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>91.01</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1876,12 +1876,12 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>4950</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1292.0</t>
+          <t>958.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,202 +1913,202 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>-1.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>30.19</t>
+          <t>27.77</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>16.6</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1561</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>49949.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>金耘國際</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>729</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>224031.0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>全譜</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>15.52%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>-107.88%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>32.28</t>
+          <t>67.02</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>2480</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
+          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>全譜-電腦及週邊設備業-上櫃</t>
+          <t>金耘國際-其他-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>其他平</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>44302.0</t>
+          <t>3278.255</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>43.75</t>
+          <t>39.98</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,57 +2185,57 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>80371</t>
+          <t>3415</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2245,14 +2245,14 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
           <t>61.0</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
       <c r="Z8" t="inlineStr">
         <is>
           <t>False</t>
@@ -2265,92 +2265,92 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>4869439.0</t>
+          <t>295958937.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>43.12</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>42.89%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>26.22</t>
+          <t>37.49</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>17211</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>29.92</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8103.024</t>
+          <t>7612.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>26.04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>46.65</t>
+          <t>62.4</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,42 +2427,42 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-5.76</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>1159</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>1.14</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2472,27 +2472,27 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2507,92 +2507,92 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>153928920.0</t>
+          <t>1244483.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>35.33</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>228009</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>958.0</t>
+          <t>2236.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>27.77</t>
+          <t>17.01</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,77 +2669,77 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>-14.86</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>596</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>-6.08</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>266.0</t>
+          <t>234.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2749,32 +2749,32 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>49949.0</t>
+          <t>363253.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>金耘國際</t>
+          <t>杭特</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
@@ -2799,42 +2799,42 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>15.52%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>69.44</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2774</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>金耘國際-其他-上櫃</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3278.255</t>
+          <t>85966.649</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>39.98</t>
+          <t>59.01</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>102.5</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,72 +2911,72 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>-3.74</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1,296</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3243</t>
+          <t>45329</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-4.25</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>-3.98</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>-4.27</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2991,32 +2991,32 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>295958937.0</t>
+          <t>19521552625.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>永信</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>102.71</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>15.24</t>
+          <t>16.38</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>42.89%</t>
+          <t>8.09%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>14.89%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>37.92</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>17824</t>
+          <t>285970</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
+          <t>C電子產品96.14%、其他3.86% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>緯創-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>45.89</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>2905</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7612.0</t>
+          <t>1837.15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,17 +3123,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>26.04</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>62.4</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,72 +3153,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>-3.32</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2658</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3233,92 +3233,92 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>1244483.0</t>
+          <t>87573884.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>三商</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>貿易百貨</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>37.29</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>39.88</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>-41.74%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>-51.81%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>28.13</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>15210</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>個人健康險33.88%、個人壽險31.14%、民生用品及餐飲零售22.80%、個人傷害險3.29%、投資型保險2.82%、系統整合服務1.52%、維修及保養服務1.34%、金融自動化服務機器0.85%、團體險保費0.81%、原料藥(API)0.67%、中間體0.44%、萬能險0.41%、年金險0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>三商-貿易百貨-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>15.64</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 貿易百貨 - 零售通路</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1529.769</t>
+          <t>78014.565</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,17 +3365,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>25.16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3395,72 +3395,72 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-6.97</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>91</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>20668</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3475,32 +3475,32 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>205862235.0</t>
+          <t>10162888144.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>奇偶</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3510,57 +3510,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>47.63%</t>
+          <t>33.80%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>15.71%</t>
+          <t>31.43%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>72.85</t>
+          <t>15.71</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>225614</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>數位監控系統及其相關產品100.00% (2024年)</t>
+          <t>運費98.11%、其他勞務1.23%、專用碼頭0.64%、租金收入0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>奇偶-光電業-上市</t>
+          <t>萬海-航運業-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2236.0</t>
+          <t>8397.872</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,22 +3637,22 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>-13.04</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>1575</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3662,47 +3662,47 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>234.0</t>
+          <t>230.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3717,92 +3717,92 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>363253.0</t>
+          <t>374962837.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>中櫃</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32.86</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>11.12%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>15.71</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>碼頭87.83%、其他5.76%、貨櫃場5.63%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>中櫃-航運業-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>85966.649</t>
+          <t>1281.206</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,17 +3849,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>59.01</t>
+          <t>26.53</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>102.5</t>
+          <t>62.7</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,72 +3879,72 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1,284</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>73075</t>
+          <t>2265</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-3.98</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-4.27</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3959,32 +3959,32 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>19521552625.0</t>
+          <t>254963941.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>櫻花建</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3994,57 +3994,57 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>102.71</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>17.41</t>
+          <t>21.89</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>8.09%</t>
+          <t>46.98%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>42.67%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>88.11</t>
+          <t>43.77</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>303916</t>
+          <t>62041</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>C電子產品96.14%、其他3.86% (2024年)</t>
+          <t>房地銷售99.91%、其他0.09% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>緯創-電腦及週邊設備業-上市</t>
+          <t>櫻花建-建材營造-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>45.89</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>931.0</t>
+          <t>3440.116</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,27 +4091,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>26.55</t>
+          <t>24.54</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>95.3</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4121,82 +4121,82 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>3310</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-6.38</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>140.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -4206,87 +4206,87 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>33581.0</t>
+          <t>608389716.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>港建*</t>
+          <t>冠西電</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>37.34%</t>
+          <t>6.56%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>20.35%</t>
+          <t>-25.76%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>28.45</t>
+          <t>68.53</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>17403</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>商品銷售87.92%、勞務12.08% (2024年)</t>
+          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>港建*-其他電子業-上櫃</t>
+          <t>冠西電-光電業-上市</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>其他電子業右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
+          <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
         </is>
       </c>
     </row>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1837.15</t>
+          <t>1082.442</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,122 +4333,122 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>87.5</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-2.94</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-1.65</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>-3.29</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>-3.99</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>-1.08</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>535</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>-0.73</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4458,17 +4458,17 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>87573884.0</t>
+          <t>120186141.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>三商</t>
+          <t>為升</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4478,57 +4478,57 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>37.29</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>25.22</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>-41.74%</t>
+          <t>31.32%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>-51.81%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>17.65</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>15547</t>
+          <t>11978</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>個人健康險33.88%、個人壽險31.14%、民生用品及餐飲零售22.80%、個人傷害險3.29%、投資型保險2.82%、系統整合服務1.52%、維修及保養服務1.34%、金融自動化服務機器0.85%、團體險保費0.81%、原料藥(API)0.67%、中間體0.44%、萬能險0.41%、年金險0.02%、其他0.01% (2023年)</t>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>三商-貿易百貨-上市</t>
+          <t>為升-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4542,1216 +4542,6 @@
         </is>
       </c>
       <c r="AV17" t="inlineStr">
-        <is>
-          <t>** 貿易百貨 - 零售通路</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2615</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>78014.565</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>25.16</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>-3.37</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>49207</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-0.39</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>-0.97</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>-1.04</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>10162888144.0</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>萬海</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>14.8</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>33.80%</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>31.43%</t>
-        </is>
-      </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>16.41</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>233471</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>運費98.11%、其他勞務1.23%、專用碼頭0.64%、租金收入0.02% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>萬海-航運業-上市</t>
-        </is>
-      </c>
-      <c r="AR18" t="inlineStr">
-        <is>
-          <t>航運業右上</t>
-        </is>
-      </c>
-      <c r="AS18" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV18" t="inlineStr">
-        <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2613</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8397.872</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>18.01</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>3423</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>-1.42</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>-1.46</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>43.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>374962837.0</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>中櫃</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>37.62</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>11.12%</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>16.41</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>碼頭87.83%、其他5.76%、貨櫃場5.63%、其他租賃業務0.77% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>中櫃-航運業-上市</t>
-        </is>
-      </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>航運業右上</t>
-        </is>
-      </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>23.76</t>
-        </is>
-      </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU19" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV19" t="inlineStr">
-        <is>
-          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2539</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1281.206</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>26.53</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>62.7</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>1279</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>254963941.0</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>櫻花建</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>建材營造</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>22.28</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>46.98%</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>42.67%</t>
-        </is>
-      </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>44.08</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>63135</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ20" t="inlineStr">
-        <is>
-          <t>櫻花建-建材營造-上市</t>
-        </is>
-      </c>
-      <c r="AR20" t="inlineStr">
-        <is>
-          <t>建材營造右上</t>
-        </is>
-      </c>
-      <c r="AS20" t="inlineStr">
-        <is>
-          <t>14.37</t>
-        </is>
-      </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU20" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV20" t="inlineStr">
-        <is>
-          <t>** 建材營造 - 建設業</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2466</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3440.116</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>24.54</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>95.3</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>13179</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>-6.58</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>-12.0</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>608389716.0</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>冠西電</t>
-        </is>
-      </c>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>6.56%</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>-25.76%</t>
-        </is>
-      </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>72.85</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>17832</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>冠西電-光電業-上市</t>
-        </is>
-      </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
-        </is>
-      </c>
-      <c r="AS21" t="inlineStr">
-        <is>
-          <t>11.51</t>
-        </is>
-      </c>
-      <c r="AT21" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU21" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV21" t="inlineStr">
-        <is>
-          <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2231</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1082.442</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>29.34</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>87.5</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>758</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>-2.92</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>-3.29</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>-3.99</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>136.0</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>120186141.0</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>為升</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>10.45</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>26.41</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>31.32%</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>8.59%</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>18.45</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>12542</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t>為升-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>汽車工業右下</t>
-        </is>
-      </c>
-      <c r="AS22" t="inlineStr">
-        <is>
-          <t>30.48</t>
-        </is>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU22" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV22" t="inlineStr">
         <is>
           <t>** 汽車 - 整車組裝、修理及技術服務</t>
         </is>

--- a/Result/check3/2025-04-15.xlsx
+++ b/Result/check3/2025-04-15.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-14.42</t>
+          <t>-7.21</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>793</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-5.00</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>63.79</t>
+          <t>65.34</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-5.08</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2592</t>
+          <t>2162</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>14.44</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>328937</t>
+          <t>353096</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>201</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3078</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>-2.71</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>70.22</t>
+          <t>71.57</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>134.67</t>
+          <t>142.58</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>160784</t>
+          <t>163884</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>19287</t>
+          <t>8778</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-9.81</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>38.38</t>
+          <t>42.21</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>26.45</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>6191</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-2.46</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>230683</t>
+          <t>226794</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1561</t>
+          <t>574</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>67.02</t>
+          <t>68.53</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2495</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>67</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3415</t>
+          <t>5980</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-5.16</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>14.12</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>38.03</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>17211</t>
+          <t>16518</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-5.76</t>
+          <t>-4.52</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1159</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>35.33</t>
+          <t>35.75</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1673</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2236.0</t>
+          <t>1529.769</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,32 +2669,32 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-14.86</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>600</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-6.08</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2704,37 +2704,37 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>234.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2749,27 +2749,27 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>363253.0</t>
+          <t>205862235.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>奇偶</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2779,62 +2779,62 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>47.63%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>15.71%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>71.93</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>數位監控系統及其相關產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>奇偶-光電業-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85966.649</t>
+          <t>2236.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,202 +2881,202 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>59.01</t>
+          <t>17.01</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-8.45</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>102.5</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>363253.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-3.74</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>1,296</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>45329</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-4.25</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-3.98</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-4.27</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>2025-04-23</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>19521552625.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>緯創</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>102.71</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>16.38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>8.09%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>285970</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>C電子產品96.14%、其他3.86% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>緯創-電腦及週邊設備業-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>45.89</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1837.15</t>
+          <t>85966.649</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,17 +3123,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>59.01</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>102.5</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,172 +3153,172 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-3.32</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1,079</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>41760</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-3.98</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-4.27</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>19521552625.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>緯創</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>102.71</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
           <t>17.0</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2025-04-23</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>87573884.0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>三商</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>貿易百貨</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>37.29</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>-41.74%</t>
+          <t>8.09%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>-51.81%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>28.13</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>15210</t>
+          <t>296680</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>個人健康險33.88%、個人壽險31.14%、民生用品及餐飲零售22.80%、個人傷害險3.29%、投資型保險2.82%、系統整合服務1.52%、維修及保養服務1.34%、金融自動化服務機器0.85%、團體險保費0.81%、原料藥(API)0.67%、中間體0.44%、萬能險0.41%、年金險0.02%、其他0.01% (2023年)</t>
+          <t>C電子產品96.14%、其他3.86% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>三商-貿易百貨-上市</t>
+          <t>緯創-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>45.89</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 貿易百貨 - 零售通路</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
         </is>
       </c>
     </row>
@@ -3395,17 +3395,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-6.97</t>
+          <t>-5.39</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>20668</t>
+          <t>17507</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>225614</t>
+          <t>228982</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3637,17 +3637,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-13.04</t>
+          <t>-10.64</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>32.86</t>
+          <t>33.57</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>4096</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21.89</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>43.77</t>
+          <t>44.63</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>62041</t>
+          <t>63732</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -4121,17 +4121,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3310</t>
+          <t>2355</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-6.38</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>68.53</t>
+          <t>71.93</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>17403</t>
+          <t>18603</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -4363,17 +4363,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-2.94</t>
+          <t>-3.43</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>627</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4383,12 +4383,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-1.65</t>
+          <t>-4.37</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>25.22</t>
+          <t>25.1</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>17.65</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>11978</t>
+          <t>11922</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">

--- a/Result/check3/2025-04-15.xlsx
+++ b/Result/check3/2025-04-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV17"/>
+  <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,7 +733,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-7.21</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>513</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>-3.91</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>65.34</t>
+          <t>65.39</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>74</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2162</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>353096</t>
+          <t>346592</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>5180</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.71</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>71.57</t>
+          <t>70.47</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>142.58</t>
+          <t>141.67</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>163884</t>
+          <t>161365</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44302.0</t>
+          <t>8103.024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>43.75</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>46.65</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,172 +1459,172 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>5306</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>8778</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>61.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>4869439.0</t>
+          <t>153928920.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>42.21</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.45</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>226551</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8103.024</t>
+          <t>3278.255</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>39.98</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>46.65</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,112 +1701,112 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>-1.74</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2639</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-1.26</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>6191</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-2.46</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>153928920.0</t>
+          <t>295958937.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1816,57 +1816,57 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42.89%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>37.94</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>226794</t>
+          <t>16865</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>29.92</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1876,12 +1876,12 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>958.0</t>
+          <t>7612.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>27.77</t>
+          <t>26.04</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>62.4</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,77 +1943,77 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>2072</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>266.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2023,32 +2023,32 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>49949.0</t>
+          <t>1244483.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>金耘國際</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2058,57 +2058,57 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37.66</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>15.52%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>68.53</t>
+          <t>70.67</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>1763</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>金耘國際-其他-上櫃</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>其他平</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3278.255</t>
+          <t>1529.769</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>39.98</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,72 +2185,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-3.87</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>5980</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-5.16</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2265,32 +2265,32 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>295958937.0</t>
+          <t>205862235.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>永信</t>
+          <t>奇偶</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2300,57 +2300,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>14.12</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>42.89%</t>
+          <t>47.63%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>14.89%</t>
+          <t>15.71%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>38.03</t>
+          <t>72.34</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>16518</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
+          <t>數位監控系統及其相關產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>奇偶-光電業-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7612.0</t>
+          <t>2236.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,192 +2397,192 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>26.04</t>
+          <t>17.01</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-3.19</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>62.4</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>363253.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-4.52</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1467</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-2.33</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>78.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1244483.0</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>哲固</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>35.75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>70.67</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1673</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1529.769</t>
+          <t>85966.649</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>59.01</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>102.5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,57 +2669,57 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1,222</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>23935</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>-3.98</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-4.27</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2749,32 +2749,32 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>205862235.0</t>
+          <t>19521552625.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>奇偶</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2784,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>102.71</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>47.63%</t>
+          <t>8.09%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>15.71%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>71.93</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>4093</t>
+          <t>292338</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>數位監控系統及其相關產品100.00% (2024年)</t>
+          <t>C電子產品96.14%、其他3.86% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>奇偶-光電業-上市</t>
+          <t>緯創-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>45.89</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2236.0</t>
+          <t>78014.565</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>25.16</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,72 +2911,72 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-8.45</t>
+          <t>-5.13</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>99</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>16306</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>-2.69</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>234.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2991,92 +2991,92 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>363253.0</t>
+          <t>10162888144.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>33.80%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>31.43%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>16.02</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>229543</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>運費98.11%、其他勞務1.23%、專用碼頭0.64%、租金收入0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>萬海-航運業-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85966.649</t>
+          <t>8397.872</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,114 +3123,114 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>59.01</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-10.25</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>-1.46</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>102.5</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1,079</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>41760</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>-3.98</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-4.27</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>2025-04-15</t>
@@ -3238,27 +3238,27 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>19521552625.0</t>
+          <t>374962837.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>中櫃</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3268,57 +3268,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>102.71</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>33.69</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>8.09%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>11.12%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>16.02</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>296680</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>C電子產品96.14%、其他3.86% (2024年)</t>
+          <t>碼頭87.83%、其他5.76%、貨櫃場5.63%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>緯創-電腦及週邊設備業-上市</t>
+          <t>中櫃-航運業-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>45.89</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
+          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>78014.565</t>
+          <t>1281.206</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,17 +3365,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>25.16</t>
+          <t>26.53</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>62.7</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3395,72 +3395,72 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-5.39</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>17507</t>
+          <t>1333</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3475,32 +3475,32 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>10162888144.0</t>
+          <t>254963941.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>櫻花建</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3510,57 +3510,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>22.18</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>33.80%</t>
+          <t>46.98%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>31.43%</t>
+          <t>42.67%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>44.61</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>228982</t>
+          <t>62837</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>運費98.11%、其他勞務1.23%、專用碼頭0.64%、租金收入0.02% (2024年)</t>
+          <t>房地銷售99.91%、其他0.09% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>萬海-航運業-上市</t>
+          <t>櫻花建-建材營造-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8397.872</t>
+          <t>3440.116</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>24.54</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>95.3</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,82 +3637,82 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-10.64</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>2622</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-8.78</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>230.0</t>
+          <t>140.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -3722,27 +3722,27 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>374962837.0</t>
+          <t>608389716.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>中櫃</t>
+          <t>冠西電</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3752,57 +3752,57 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>33.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>6.56%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>11.12%</t>
+          <t>-25.76%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>72.34</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>4186</t>
+          <t>17574</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>碼頭87.83%、其他5.76%、貨櫃場5.63%、其他租賃業務0.77% (2024年)</t>
+          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>中櫃-航運業-上市</t>
+          <t>冠西電-光電業-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>23.76</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,733 +3817,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2539</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1281.206</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>26.53</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>62.7</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>1563</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>254963941.0</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>櫻花建</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>建材營造</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>22.49</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>46.98%</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>42.67%</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>44.63</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>63732</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>櫻花建-建材營造-上市</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>建材營造右上</t>
-        </is>
-      </c>
-      <c r="AS15" t="inlineStr">
-        <is>
-          <t>14.37</t>
-        </is>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU15" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV15" t="inlineStr">
-        <is>
-          <t>** 建材營造 - 建設業</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2466</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3440.116</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>24.54</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>95.3</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>12.17</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2355</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>-12.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>608389716.0</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>冠西電</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>6.56%</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>-25.76%</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>71.93</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>18603</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>冠西電-光電業-上市</t>
-        </is>
-      </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
-        </is>
-      </c>
-      <c r="AS16" t="inlineStr">
-        <is>
-          <t>11.51</t>
-        </is>
-      </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV16" t="inlineStr">
-        <is>
           <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2231</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1082.442</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>29.34</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>87.5</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>-3.43</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>627</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>-4.37</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>-3.29</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>-3.99</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>136.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>120186141.0</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>為升</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>10.45</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>25.1</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>31.32%</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>8.59%</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>18.11</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>11922</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>為升-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>汽車工業右下</t>
-        </is>
-      </c>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>30.48</t>
-        </is>
-      </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV17" t="inlineStr">
-        <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務</t>
         </is>
       </c>
     </row>

--- a/Result/check3/2025-04-15.xlsx
+++ b/Result/check3/2025-04-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV14"/>
+  <dimension ref="A1:AV15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-10.8</t>
+          <t>-6.63</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>948</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-3.91</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>65.39</t>
+          <t>66.91</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3274</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>7714</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3563.699</t>
+          <t>253.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>61.01</t>
+          <t>44.08</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1860.0</t>
+          <t>99.2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,72 +975,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>18.69</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>574</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-55.92</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-81.47</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,97 +1050,97 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>14386761667.0</t>
+          <t>51122.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>緯穎</t>
+          <t>創泓科技</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>622.11</t>
+          <t>22.17</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>24.06</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>24.41%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>13.96%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>120.92</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>346592</t>
+          <t>2562</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>資料中心產品100.00% (2024年)</t>
+          <t>資安授權保固32.85%、網路資訊安全軟體30.87%、網路資訊安全硬體28.48%、資安人力技術服務7.81% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>緯穎-電腦及週邊設備業-上市</t>
+          <t>創泓科技-數位雲端-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>數位雲端右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>474.62</t>
+          <t>16.4</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
+          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)** 軟體服務 - 系統整合服務、通路經銷** 金融科技 - 數據分析、數位身分** 人工智慧 - 系統整合、顧問諮詢、領域解決方案、機器學習、自然語言處理、雲端平台、資料處理** 雲端運算 - 設備管理軟體、營運管理軟體、資安防護軟體、系統整合、顧問諮詢、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安營運管理服務、資安顧問服務</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6415</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.46</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3224.878</t>
+          <t>3563.699</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>-2.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>28.45</t>
+          <t>61.01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>415.5</t>
+          <t>1860.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5180</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-9.72</t>
+          <t>-55.92</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-10.67</t>
+          <t>-81.47</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,32 +1297,32 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2920278540.0</t>
+          <t>14386761667.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>矽力*-KY</t>
+          <t>緯穎</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,57 +1332,57 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>622.11</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>70.47</t>
+          <t>15.54</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>55.38%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>18.07%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>141.67</t>
+          <t>91.06</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>161365</t>
+          <t>354025</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
+          <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>矽力*-KY-半導體業-上市</t>
+          <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>91.01</t>
+          <t>474.62</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
+          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-2.46</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8103.024</t>
+          <t>3224.878</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>46.65</t>
+          <t>415.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>5306</t>
+          <t>7512</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-3.11</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>-9.72</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>-10.67</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,32 +1539,32 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>153928920.0</t>
+          <t>2920278540.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>矽力*-KY</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1574,57 +1574,57 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>70.22</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>55.38%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.07%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>143.66</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>226551</t>
+          <t>160784</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>矽力*-KY-半導體業-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>91.01</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3278.255</t>
+          <t>44302.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,202 +1671,202 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>39.98</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>59.4</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>36851</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-7.17</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-1.74</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2639</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-1.26</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>61.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>295958937.0</t>
+          <t>4869439.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>永信</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>14.42</t>
+          <t>43.18</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>42.89%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>14.89%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>37.94</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>16865</t>
+          <t>3099</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7612.0</t>
+          <t>3278.255</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26.04</t>
+          <t>39.98</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>62.4</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,57 +1943,57 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2072</t>
+          <t>2786</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2023,92 +2023,92 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1244483.0</t>
+          <t>295958937.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>37.66</t>
+          <t>14.9</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>42.89%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>70.67</t>
+          <t>38.34</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1763</t>
+          <t>17424</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>29.92</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1529.769</t>
+          <t>7612.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>26.04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>62.4</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,72 +2185,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2265,27 +2265,27 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>205862235.0</t>
+          <t>1244483.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>奇偶</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -2295,62 +2295,62 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>41.38</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>47.63%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>15.71%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>72.34</t>
+          <t>75.24</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4237</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>數位監控系統及其相關產品100.00% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>奇偶-光電業-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2236.0</t>
+          <t>1529.769</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,32 +2427,32 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2462,37 +2462,37 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>234.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2507,27 +2507,27 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>363253.0</t>
+          <t>205862235.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>奇偶</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -2537,52 +2537,52 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>47.63%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>15.71%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>70.67</t>
+          <t>74.13</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>4661</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>數位監控系統及其相關產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>奇偶-光電業-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>85966.649</t>
+          <t>2236.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,202 +2639,202 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>59.01</t>
+          <t>17.01</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2293</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>102.5</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>363253.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-1.49</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1,222</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>23935</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-1.98</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-3.98</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-4.27</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>19521552625.0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>緯創</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>102.71</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>8.09%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>75.24</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>292338</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>C電子產品96.14%、其他3.86% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>緯創-電腦及週邊設備業-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>45.89</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>78014.565</t>
+          <t>85966.649</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,114 +2881,114 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>102.5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1,082</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>30423</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>1.26</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>25.16</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-1.46</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-3.98</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-4.27</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-5.13</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>16306</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-2.69</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-0.97</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-1.04</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>2025-04-15</t>
@@ -2996,27 +2996,27 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>10162888144.0</t>
+          <t>19521552625.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>102.71</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>33.80%</t>
+          <t>8.09%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>31.43%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>16.02</t>
+          <t>91.06</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>229543</t>
+          <t>296680</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>運費98.11%、其他勞務1.23%、專用碼頭0.64%、租金收入0.02% (2024年)</t>
+          <t>C電子產品96.14%、其他3.86% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>萬海-航運業-上市</t>
+          <t>緯創-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>45.89</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8397.872</t>
+          <t>78014.565</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>25.16</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,72 +3153,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-10.25</t>
+          <t>-4.62</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>139</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>15099</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>230.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3238,22 +3238,22 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>374962837.0</t>
+          <t>10162888144.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>中櫃</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -3268,57 +3268,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>33.69</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>33.80%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>11.12%</t>
+          <t>31.43%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>16.02</t>
+          <t>16.08</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>4200</t>
+          <t>230665</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>碼頭87.83%、其他5.76%、貨櫃場5.63%、其他租賃業務0.77% (2024年)</t>
+          <t>運費98.11%、其他勞務1.23%、專用碼頭0.64%、租金收入0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>中櫃-航運業-上市</t>
+          <t>萬海-航運業-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>23.76</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
+          <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1281.206</t>
+          <t>8397.872</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,142 +3365,142 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-11.23</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-1.60</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-1.46</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>62.7</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>1333</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-1.89</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>254963941.0</t>
+          <t>374962837.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>櫻花建</t>
+          <t>中櫃</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3510,57 +3510,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>22.18</t>
+          <t>33.39</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>11.12%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>44.61</t>
+          <t>16.08</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>62837</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+          <t>碼頭87.83%、其他5.76%、貨櫃場5.63%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>中櫃-航運業-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
         </is>
       </c>
     </row>
@@ -3587,235 +3587,477 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2539</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1281.206</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>62.7</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-2.12</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-4.40</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>254963941.0</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>櫻花建</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>46.98%</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>42.67%</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>44.82</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>61047</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>櫻花建-建材營造-上市</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>建材營造右上</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建設業</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>2466</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>9.78</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>3440.116</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>8.42</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>24.54</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>1.6</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>95.3</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>7.02</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2622</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1766</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>8.28</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>-8.78</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-5.85</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>1.77</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>0.53</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>-0.69</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>140.0</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>-12.0</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>2025-04-15</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
         <is>
           <t>-12</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>608389716.0</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>冠西電</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AI15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>1.26</t>
         </is>
       </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>6.56%</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>-25.76%</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>72.34</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
         <is>
           <t>17574</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>冠西電-光電業-上市</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>11.51</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU14" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV14" t="inlineStr">
+      <c r="AV15" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
         </is>

--- a/Result/check3/2025-04-15.xlsx
+++ b/Result/check3/2025-04-15.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-6.63</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>1524</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>66.91</t>
+          <t>70.93</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3274</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>44.08</t>
+          <t>39.91</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>18.69</t>
+          <t>25.97</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>634</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>24.06</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>120.92</t>
+          <t>121.06</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2562</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>15.54</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>91.06</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>354025</t>
+          <t>353096</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>7512</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.11</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>70.22</t>
+          <t>69.2</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>143.66</t>
+          <t>146.15</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>160784</t>
+          <t>158460</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>18.74</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>73</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>36851</t>
+          <t>51498</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-7.17</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>43.18</t>
+          <t>47.47</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>27.76</t>
+          <t>28.87</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3099</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>39</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2786</t>
+          <t>3485</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>38.34</t>
+          <t>38.26</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>17424</t>
+          <t>17850</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>41.38</t>
+          <t>40.72</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>75.24</t>
+          <t>75.14</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1906</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>14.78</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>53</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3921</t>
+          <t>11296</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>-3.10</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>74.13</t>
+          <t>75.89</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4661</t>
+          <t>4812</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>75.24</t>
+          <t>75.14</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1,082</t>
+          <t>1,356</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>30423</t>
+          <t>21311</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>91.06</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -3153,17 +3153,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-4.62</t>
+          <t>-4.5</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>55</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>15099</t>
+          <t>7361</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>16.08</t>
+          <t>16.34</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>230665</t>
+          <t>230946</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3395,17 +3395,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-11.23</t>
+          <t>-6.48</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>33.39</t>
+          <t>34.88</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>16.08</t>
+          <t>16.34</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3637,17 +3637,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>707</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-4.40</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21.54</t>
+          <t>21.61</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>44.82</t>
+          <t>45.38</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>61047</t>
+          <t>61246</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>-1.93</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>519</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1766</t>
+          <t>3409</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-5.85</t>
+          <t>-7.58</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>74.13</t>
+          <t>75.89</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>17574</t>
+          <t>16031</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">

--- a/Result/check3/2025-04-15.xlsx
+++ b/Result/check3/2025-04-15.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>5339</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>70.93</t>
+          <t>72.17</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>39.91</t>
+          <t>22.04</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>25.97</t>
+          <t>32.52</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>28.99</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>121.06</t>
+          <t>131.22</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2814</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>95.62</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>353096</t>
+          <t>358671</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>2877</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-2.94</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>69.2</t>
+          <t>69.12</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>146.15</t>
+          <t>150.22</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>158460</t>
+          <t>158266</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>18.74</t>
+          <t>19.4</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>276</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>51498</t>
+          <t>84019</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>-7.59</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>47.47</t>
+          <t>47.86</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3485</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>15.26</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>38.26</t>
+          <t>38.69</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>17850</t>
+          <t>17690</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>14.52</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>54</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2535</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>40.72</t>
+          <t>43.71</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>78.33</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1906</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>14.78</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>83</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>11296</t>
+          <t>8330</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-3.10</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>77.46</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4812</t>
+          <t>5292</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>2190</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>78.33</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2911,84 +2911,84 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1,220</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>13877</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-3.98</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-4.27</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>1,356</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>21311</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-1.46</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-3.98</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-4.27</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>2025-04-15</t>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>17.25</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>95.62</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>296680</t>
+          <t>301021</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3153,17 +3153,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-4.5</t>
+          <t>-4.62</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>7361</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>16.34</t>
+          <t>16.36</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>230946</t>
+          <t>230665</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3395,17 +3395,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-6.48</t>
+          <t>-7.4</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>613</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>34.88</t>
+          <t>34.58</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>16.34</t>
+          <t>16.36</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>4349</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1281.206</t>
+          <t>3440.116</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>24.54</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>95.3</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,112 +3637,112 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>-3.93</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>873</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>140.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>254963941.0</t>
+          <t>608389716.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>櫻花建</t>
+          <t>冠西電</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3752,57 +3752,57 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21.61</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>6.56%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>-25.76%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>45.38</t>
+          <t>77.46</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>61246</t>
+          <t>15723</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>冠西電-光電業-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3440.116</t>
+          <t>1082.442</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>24.54</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>95.3</t>
+          <t>87.5</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,112 +3879,112 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-1.93</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3409</t>
+          <t>873</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-7.58</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-3.29</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-3.99</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>136.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>608389716.0</t>
+          <t>120186141.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>冠西電</t>
+          <t>為升</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3994,57 +3994,57 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27.09</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>6.56%</t>
+          <t>31.32%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>-25.76%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>16031</t>
+          <t>12866</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>冠西電-光電業-上市</t>
+          <t>為升-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務</t>
         </is>
       </c>
     </row>
